--- a/APM files/128788863/Export Results/128788863 EXPORT 2 PS&NS template_result.xlsx
+++ b/APM files/128788863/Export Results/128788863 EXPORT 2 PS&NS template_result.xlsx
@@ -596,7 +596,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>38231185</t>
+          <t>37833667</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -631,17 +631,17 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>38231185</t>
+          <t>37833667</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Apartment 3M</t>
+          <t>Apartments Branka</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>RIMSKI PUT 40</t>
+          <t>Kneza Trpimira 22</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>4787877</t>
+          <t>4776262</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -788,19 +788,15 @@
           <t>No</t>
         </is>
       </c>
-      <c r="AQ2" t="inlineStr">
+      <c r="AQ2"/>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr">
         <is>
           <t>Yes</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AS2" t="inlineStr">
-        <is>
-          <t>No</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
@@ -962,7 +958,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>38161830</t>
+          <t>38161847</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -997,22 +993,22 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>38161830</t>
+          <t>38161847</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Apartment Anica</t>
+          <t>House Blanka</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Put ribole 16</t>
+          <t>BOCIC 31</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Trogir</t>
+          <t>Okrug</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -1071,7 +1067,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>4784843</t>
+          <t>4784855</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -1154,19 +1150,15 @@
           <t>No</t>
         </is>
       </c>
-      <c r="AQ3" t="inlineStr">
+      <c r="AQ3"/>
+      <c r="AR3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AS3" t="inlineStr">
         <is>
           <t>Yes</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AS3" t="inlineStr">
-        <is>
-          <t>No</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">
@@ -1328,7 +1320,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>38161847</t>
+          <t>38161830</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1363,22 +1355,22 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>38161847</t>
+          <t>38161830</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>House Blanka</t>
+          <t>Apartment Anica</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>BOCIC 31</t>
+          <t>Put ribole 16</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Okrug</t>
+          <t>Trogir</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -1437,7 +1429,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>4784855</t>
+          <t>4784843</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1520,19 +1512,15 @@
           <t>No</t>
         </is>
       </c>
-      <c r="AQ4" t="inlineStr">
+      <c r="AQ4"/>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AS4" t="inlineStr">
         <is>
           <t>Yes</t>
-        </is>
-      </c>
-      <c r="AR4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AS4" t="inlineStr">
-        <is>
-          <t>No</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
@@ -1694,7 +1682,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>37833667</t>
+          <t>38231185</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1729,17 +1717,17 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>37833667</t>
+          <t>38231185</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Apartments Branka</t>
+          <t>Apartment 3M</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Kneza Trpimira 22</t>
+          <t>RIMSKI PUT 40</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1803,7 +1791,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>4776262</t>
+          <t>4787877</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1886,19 +1874,15 @@
           <t>No</t>
         </is>
       </c>
-      <c r="AQ5" t="inlineStr">
+      <c r="AQ5"/>
+      <c r="AR5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AS5" t="inlineStr">
         <is>
           <t>Yes</t>
-        </is>
-      </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AS5" t="inlineStr">
-        <is>
-          <t>No</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr">
